--- a/training/results/ts/linear_regression/train_results.xlsx
+++ b/training/results/ts/linear_regression/train_results.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:BM16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       <c r="Q1" s="1" t="n"/>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>best_single_threshold_0.50_0.50</t>
+          <t>best_single_threshold_0.05_0.95</t>
         </is>
       </c>
       <c r="S1" s="1" t="n"/>
@@ -505,7 +505,7 @@
       <c r="Y1" s="1" t="n"/>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>best_multiple_thresholds_0.50_0.50</t>
+          <t>best_multiple_thresholds_0.05_0.95</t>
         </is>
       </c>
       <c r="AA1" s="1" t="n"/>
@@ -517,7 +517,7 @@
       <c r="AG1" s="1" t="n"/>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>best_graph_thresholds_0.50_0.50</t>
+          <t>best_graph_thresholds_0.05_0.95</t>
         </is>
       </c>
       <c r="AI1" s="1" t="n"/>
@@ -527,6 +527,42 @@
       <c r="AM1" s="1" t="n"/>
       <c r="AN1" s="1" t="n"/>
       <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>best_single_threshold_0.25_0.75</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
+      <c r="AS1" s="1" t="n"/>
+      <c r="AT1" s="1" t="n"/>
+      <c r="AU1" s="1" t="n"/>
+      <c r="AV1" s="1" t="n"/>
+      <c r="AW1" s="1" t="n"/>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>best_multiple_thresholds_0.25_0.75</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="n"/>
+      <c r="AZ1" s="1" t="n"/>
+      <c r="BA1" s="1" t="n"/>
+      <c r="BB1" s="1" t="n"/>
+      <c r="BC1" s="1" t="n"/>
+      <c r="BD1" s="1" t="n"/>
+      <c r="BE1" s="1" t="n"/>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>best_graph_thresholds_0.25_0.75</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="n"/>
+      <c r="BH1" s="1" t="n"/>
+      <c r="BI1" s="1" t="n"/>
+      <c r="BJ1" s="1" t="n"/>
+      <c r="BK1" s="1" t="n"/>
+      <c r="BL1" s="1" t="n"/>
+      <c r="BM1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -730,6 +766,126 @@
         </is>
       </c>
       <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy1</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>rmse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="AS2" s="1" t="inlineStr">
+        <is>
+          <t>mae_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AT2" s="1" t="inlineStr">
+        <is>
+          <t>mse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AU2" s="1" t="inlineStr">
+        <is>
+          <t>somers_d</t>
+        </is>
+      </c>
+      <c r="AV2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="AW2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy1</t>
+        </is>
+      </c>
+      <c r="AX2" s="1" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="AY2" s="1" t="inlineStr">
+        <is>
+          <t>rmse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AZ2" s="1" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="BA2" s="1" t="inlineStr">
+        <is>
+          <t>mae_macroaveraged</t>
+        </is>
+      </c>
+      <c r="BB2" s="1" t="inlineStr">
+        <is>
+          <t>mse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="BC2" s="1" t="inlineStr">
+        <is>
+          <t>somers_d</t>
+        </is>
+      </c>
+      <c r="BD2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="BE2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy1</t>
+        </is>
+      </c>
+      <c r="BF2" s="1" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="BG2" s="1" t="inlineStr">
+        <is>
+          <t>rmse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="BH2" s="1" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="BI2" s="1" t="inlineStr">
+        <is>
+          <t>mae_macroaveraged</t>
+        </is>
+      </c>
+      <c r="BJ2" s="1" t="inlineStr">
+        <is>
+          <t>mse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="BK2" s="1" t="inlineStr">
+        <is>
+          <t>somers_d</t>
+        </is>
+      </c>
+      <c r="BL2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="BM2" s="1" t="inlineStr">
         <is>
           <t>accuracy1</t>
         </is>
@@ -740,120 +896,196 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2753053139861379</v>
+        <v>0.3704162395827716</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2442557025796203</v>
+        <v>0.4144219252349916</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2206957298186175</v>
+        <v>0.2850600843231559</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1551167271821164</v>
+        <v>0.3175930919486747</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05966084824266393</v>
+        <v>0.1717455321154769</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9973130317957905</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+        <v>0.99369797300475</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5352112676056338</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9906103286384976</v>
+      </c>
       <c r="J4" t="n">
-        <v>0.2390457218668787</v>
+        <v>0.3704162395827716</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2364331218717302</v>
+        <v>0.4144219252349916</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.2850600843231559</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05590062111801242</v>
+        <v>0.3175930919486747</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05590062111801242</v>
+        <v>0.1717455321154769</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9901477832512315</v>
+        <v>0.99369797300475</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0.9906103286384976</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2390457218668787</v>
+        <v>0.3704162395827716</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2364331218717302</v>
+        <v>0.4144219252349916</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.2850600843231559</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05590062111801242</v>
+        <v>0.3175930919486747</v>
       </c>
       <c r="V4" t="n">
-        <v>0.05590062111801242</v>
+        <v>0.1717455321154769</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9901477832512315</v>
+        <v>0.99369797300475</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>0.9906103286384976</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2390457218668787</v>
+        <v>0.3704162395827716</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.2364331218717302</v>
+        <v>0.4144219252349916</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.2850600843231559</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05590062111801242</v>
+        <v>0.3175930919486747</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.05590062111801242</v>
+        <v>0.1717455321154769</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.9901477832512315</v>
+        <v>0.99369797300475</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="AG4" t="n">
-        <v>1</v>
+        <v>0.9906103286384976</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.2390457218668787</v>
+        <v>0.3704162395827716</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.2364331218717302</v>
+        <v>0.4144219252349916</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.2850600843231559</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.05590062111801242</v>
+        <v>0.3175930919486747</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.05590062111801242</v>
+        <v>0.1717455321154769</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.9901477832512315</v>
+        <v>0.99369797300475</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="AO4" t="n">
-        <v>1</v>
+        <v>0.9906103286384976</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.3704162395827716</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.4144219252349916</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2850600843231559</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.3175930919486747</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.1717455321154769</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.99369797300475</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.5352112676056338</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.9906103286384976</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.3704162395827716</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.4144219252349916</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.2850600843231559</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.3175930919486747</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.1717455321154769</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.99369797300475</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.5352112676056338</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.9906103286384976</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.3704162395827716</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.4144219252349916</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.2850600843231559</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.3175930919486747</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.1717455321154769</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.99369797300475</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.5352112676056338</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.9906103286384976</v>
       </c>
     </row>
     <row r="5">
@@ -861,120 +1093,196 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6308074048013577</v>
+        <v>0.6090617498315166</v>
       </c>
       <c r="C5" t="n">
-        <v>0.698758702123626</v>
+        <v>0.7203174946066965</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4544739850982188</v>
+        <v>0.4259273663828161</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5252106577494183</v>
+        <v>0.5052695794639162</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4882637237934944</v>
+        <v>0.5188572930364682</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9808219178082191</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+        <v>0.9828122684842199</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4911242603550296</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9319526627218935</v>
+      </c>
       <c r="J5" t="n">
-        <v>0.6642111641550714</v>
+        <v>0.6090617498315166</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7319025533757</v>
+        <v>0.7203174946066965</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.4259273663828161</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4559712027103331</v>
+        <v>0.5052695794639162</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5356813476378693</v>
+        <v>0.5188572930364682</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9681506849315068</v>
+        <v>0.9828122684842199</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.4911242603550296</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9705882352941176</v>
+        <v>0.9319526627218935</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6642111641550714</v>
+        <v>0.6090617498315166</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7319025533757</v>
+        <v>0.7203174946066965</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.4259273663828161</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4559712027103331</v>
+        <v>0.5052695794639162</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5356813476378693</v>
+        <v>0.5188572930364682</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9681506849315068</v>
+        <v>0.9828122684842199</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.4911242603550296</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.9705882352941176</v>
+        <v>0.9319526627218935</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6642111641550714</v>
+        <v>0.6090617498315166</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7319025533757</v>
+        <v>0.7203174946066965</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.4259273663828161</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4559712027103331</v>
+        <v>0.5052695794639162</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.5356813476378693</v>
+        <v>0.5188572930364682</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.9681506849315068</v>
+        <v>0.9828122684842199</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.4911242603550296</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.9705882352941176</v>
+        <v>0.9319526627218935</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.6697233845138647</v>
+        <v>0.6090617498315166</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.736836294199372</v>
+        <v>0.7203174946066965</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.3897058823529412</v>
+        <v>0.4259273663828161</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.4632175795219273</v>
+        <v>0.5052695794639162</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.5429277244494636</v>
+        <v>0.5188572930364682</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.9674657534246576</v>
+        <v>0.9828122684842199</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.6397058823529411</v>
+        <v>0.4911242603550296</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.9705882352941176</v>
+        <v>0.9319526627218935</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.6090617498315166</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.7203174946066965</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.4259273663828161</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.5052695794639162</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.5188572930364682</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.9828122684842199</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.4911242603550296</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.9319526627218935</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.6090617498315166</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.7203174946066965</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.4259273663828161</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.5052695794639162</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.5188572930364682</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.9828122684842199</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.4911242603550296</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.9319526627218935</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.6090617498315166</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.7203174946066965</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.4259273663828161</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.5052695794639162</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.5188572930364682</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.9828122684842199</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.4911242603550296</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.9319526627218935</v>
       </c>
     </row>
     <row r="6">
@@ -982,120 +1290,196 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6362728933541574</v>
+        <v>0.6174199507428241</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7573208501904813</v>
+        <v>0.745511290504374</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4605529467449204</v>
+        <v>0.4257761497683117</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5629366510449214</v>
+        <v>0.4985344625307598</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5735348701332336</v>
+        <v>0.5557870842694972</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9787111068297852</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+        <v>0.9831302316109879</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4696629213483146</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9235955056179775</v>
+      </c>
       <c r="J6" t="n">
-        <v>0.6510065466717856</v>
+        <v>0.6174199507428241</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7770299686973683</v>
+        <v>0.745511290504374</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.4257761497683117</v>
       </c>
       <c r="M6" t="n">
-        <v>0.491851988591119</v>
+        <v>0.4985344625307598</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6037755722538332</v>
+        <v>0.5557870842694972</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9677776707446296</v>
+        <v>0.9831302316109879</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6761904761904762</v>
+        <v>0.4696629213483146</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9235955056179775</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6510065466717856</v>
+        <v>0.6174199507428241</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7770299686973683</v>
+        <v>0.745511290504374</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.4257761497683117</v>
       </c>
       <c r="U6" t="n">
-        <v>0.491851988591119</v>
+        <v>0.4985344625307598</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6037755722538332</v>
+        <v>0.5557870842694972</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9677776707446296</v>
+        <v>0.9831302316109879</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6761904761904762</v>
+        <v>0.4696629213483146</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9235955056179775</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6510065466717856</v>
+        <v>0.6174199507428241</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7770299686973683</v>
+        <v>0.745511290504374</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.4257761497683117</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.491851988591119</v>
+        <v>0.4985344625307598</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.6037755722538332</v>
+        <v>0.5557870842694972</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.9677776707446296</v>
+        <v>0.9831302316109879</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.6761904761904762</v>
+        <v>0.4696629213483146</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9235955056179775</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.6473388749701496</v>
+        <v>0.6174199507428241</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.7723530251395659</v>
+        <v>0.745511290504374</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.3523809523809524</v>
+        <v>0.4257761497683117</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.4846056117795248</v>
+        <v>0.4985344625307598</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.5965291954422389</v>
+        <v>0.5557870842694972</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.9678258356613043</v>
+        <v>0.9831302316109879</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.680952380952381</v>
+        <v>0.4696629213483146</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9235955056179775</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.6174199507428241</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.745511290504374</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.4257761497683117</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.4985344625307598</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.5557870842694972</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.9831302316109879</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.4696629213483146</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.9235955056179775</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.6174199507428241</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.745511290504374</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.4257761497683117</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.4985344625307598</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.5557870842694972</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.9831302316109879</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.4696629213483146</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.9235955056179775</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.6174199507428241</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.745511290504374</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.4257761497683117</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.4985344625307598</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.5557870842694972</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.9831302316109879</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.4696629213483146</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.9235955056179775</v>
       </c>
     </row>
     <row r="7">
@@ -1103,129 +1487,1981 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6667979716508511</v>
+        <v>0.5643740627512107</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7353724680855473</v>
+        <v>0.707146658087599</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4787310703528543</v>
+        <v>0.3876897025939039</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5328388920950587</v>
+        <v>0.4616950703091405</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5407726668182293</v>
+        <v>0.5000563960444596</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9773557745543129</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+        <v>0.9851033593624097</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4905882352941177</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9447058823529412</v>
+      </c>
       <c r="J7" t="n">
-        <v>0.659380473395787</v>
+        <v>0.5643740627512107</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7237565539650309</v>
+        <v>0.707146658087599</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3695652173913043</v>
+        <v>0.3876897025939039</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4414520271603558</v>
+        <v>0.4616950703091405</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5238235494073368</v>
+        <v>0.5000563960444596</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9680544790167201</v>
+        <v>0.9851033593624097</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6594202898550725</v>
+        <v>0.4905882352941177</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9746376811594203</v>
+        <v>0.9447058823529412</v>
       </c>
       <c r="R7" t="n">
-        <v>0.659380473395787</v>
+        <v>0.5643740627512107</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7237565539650309</v>
+        <v>0.707146658087599</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3695652173913043</v>
+        <v>0.3876897025939039</v>
       </c>
       <c r="U7" t="n">
-        <v>0.4414520271603558</v>
+        <v>0.4616950703091405</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5238235494073368</v>
+        <v>0.5000563960444596</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9680544790167201</v>
+        <v>0.9851033593624097</v>
       </c>
       <c r="X7" t="n">
-        <v>0.6594202898550725</v>
+        <v>0.4905882352941177</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9746376811594203</v>
+        <v>0.9447058823529412</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.659380473395787</v>
+        <v>0.5643740627512107</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7237565539650309</v>
+        <v>0.707146658087599</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3695652173913043</v>
+        <v>0.3876897025939039</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.4414520271603558</v>
+        <v>0.4616950703091405</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.5238235494073368</v>
+        <v>0.5000563960444596</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.9680544790167201</v>
+        <v>0.9851033593624097</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.6594202898550725</v>
+        <v>0.4905882352941177</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.9746376811594203</v>
+        <v>0.9447058823529412</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.6566273069937429</v>
+        <v>0.5643740627512107</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.7205311681767619</v>
+        <v>0.707146658087599</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.3659420289855073</v>
+        <v>0.3876897025939039</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.4367936420671881</v>
+        <v>0.4616950703091405</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.519165164314169</v>
+        <v>0.5000563960444596</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.9681375262983059</v>
+        <v>0.9851033593624097</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.6630434782608695</v>
+        <v>0.4905882352941177</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.9746376811594203</v>
+        <v>0.9447058823529412</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.5643740627512107</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.707146658087599</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.3876897025939039</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.4616950703091405</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.5000563960444596</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.9851033593624097</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.4905882352941177</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.9447058823529412</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.5643740627512107</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.707146658087599</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.3876897025939039</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.4616950703091405</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.5000563960444596</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.9851033593624097</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.4905882352941177</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.9447058823529412</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.5643740627512107</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.707146658087599</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.3876897025939039</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.4616950703091405</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.5000563960444596</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.9851033593624097</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.4905882352941177</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.9447058823529412</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5766581584948006</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7140420482195803</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3988194086814755</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4684771122257022</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5098560466256135</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9831083962427246</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.4853862212943633</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9394572025052192</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5766581584948006</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.7140420482195803</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3988194086814755</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.4684771122257022</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.5098560466256135</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9831083962427246</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.4853862212943633</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.9394572025052192</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.5766581584948006</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.7140420482195803</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.3988194086814755</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.4684771122257022</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.5098560466256135</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.9831083962427246</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.4853862212943633</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.9394572025052192</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.5766581584948006</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.7140420482195803</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.3988194086814755</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.4684771122257022</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.5098560466256135</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.9831083962427246</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.4853862212943633</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.9394572025052192</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.5766581584948006</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.7140420482195803</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.3988194086814755</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.4684771122257022</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.5098560466256135</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.9831083962427246</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.4853862212943633</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.9394572025052192</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.5766581584948006</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.7140420482195803</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.3988194086814755</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.4684771122257022</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.5098560466256135</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.9831083962427246</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.4853862212943633</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.9394572025052192</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.5766581584948006</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.7140420482195803</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.3988194086814755</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.4684771122257022</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.5098560466256135</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.9831083962427246</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.4853862212943633</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.9394572025052192</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.5766581584948006</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.7140420482195803</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.3988194086814755</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.4684771122257022</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.5098560466256135</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.9831083962427246</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.4853862212943633</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.9394572025052192</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5862203765720478</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7227225381311195</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4031087697455086</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4728867488811906</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5223278671226875</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9814727318047717</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4807872539831303</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9353327085285849</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5862203765720478</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.7227225381311195</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.4031087697455086</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.4728867488811906</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.5223278671226875</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.9814727318047717</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.4807872539831303</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.9353327085285849</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.5862203765720478</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.7227225381311195</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.4031087697455086</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.4728867488811906</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.5223278671226875</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.9814727318047717</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.4807872539831303</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.9353327085285849</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.5862203765720478</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.7227225381311195</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.4031087697455086</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.4728867488811906</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.5223278671226875</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.9814727318047717</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.4807872539831303</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.9353327085285849</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.5862203765720478</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.7227225381311195</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.4031087697455086</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.4728867488811906</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.5223278671226875</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.9814727318047717</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.4807872539831303</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.9353327085285849</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.5862203765720478</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.7227225381311195</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.4031087697455086</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.4728867488811906</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.5223278671226875</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.9814727318047717</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.4807872539831303</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.9353327085285849</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.5862203765720478</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.7227225381311195</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.4031087697455086</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.4728867488811906</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.5223278671226875</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.9814727318047717</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.4807872539831303</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.9353327085285849</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.5862203765720478</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.7227225381311195</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.4031087697455086</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.4728867488811906</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.5223278671226875</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.9814727318047717</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.4807872539831303</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.9353327085285849</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6004458296375769</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7124303314404002</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4076071983446544</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4741064285473825</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5075569771562786</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9839787161214943</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4527813712807244</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9320827943078913</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6004458296375769</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.7124303314404002</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4076071983446544</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4741064285473825</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.5075569771562786</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9839787161214943</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4527813712807244</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.9320827943078913</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.6004458296375769</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.7124303314404002</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4076071983446544</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.4741064285473825</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.5075569771562786</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.9839787161214943</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.4527813712807244</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.9320827943078913</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.6004458296375769</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.7124303314404002</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.4076071983446544</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.4741064285473825</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.5075569771562786</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.9839787161214943</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.4527813712807244</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.9320827943078913</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.6004458296375769</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.7124303314404002</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.4076071983446544</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.4741064285473825</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.5075569771562786</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.9839787161214943</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.4527813712807244</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.9320827943078913</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.6004458296375769</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.7124303314404002</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.4076071983446544</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.4741064285473825</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.5075569771562786</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.9839787161214943</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.4527813712807244</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.9320827943078913</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.6004458296375769</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.7124303314404002</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.4076071983446544</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.4741064285473825</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.5075569771562786</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.9839787161214943</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.4527813712807244</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.9320827943078913</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.6004458296375769</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.7124303314404002</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.4076071983446544</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.4741064285473825</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.5075569771562786</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.9839787161214943</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.4527813712807244</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.9320827943078913</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6078893529103104</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.715010075024983</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4092767682693446</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.471422375180838</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5112394073872319</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9844379271460191</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4624926166568222</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9373892498523332</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.6078893529103104</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.715010075024983</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.4092767682693446</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.471422375180838</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.5112394073872319</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.9844379271460191</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.4624926166568222</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.9373892498523332</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.6078893529103104</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.715010075024983</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.4092767682693446</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.471422375180838</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.5112394073872319</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.9844379271460191</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.4624926166568222</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.9373892498523332</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.6078893529103104</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.715010075024983</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.4092767682693446</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.471422375180838</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.5112394073872319</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.9844379271460191</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.4624926166568222</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.9373892498523332</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.6078893529103104</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.715010075024983</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.4092767682693446</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.471422375180838</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.5112394073872319</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.9844379271460191</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.4624926166568222</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.9373892498523332</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.6078893529103104</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.715010075024983</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.4092767682693446</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.471422375180838</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.5112394073872319</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.9844379271460191</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.4624926166568222</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.9373892498523332</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.6078893529103104</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.715010075024983</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.4092767682693446</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.471422375180838</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.5112394073872319</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.9844379271460191</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.4624926166568222</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.9373892498523332</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.6078893529103104</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.715010075024983</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.4092767682693446</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.471422375180838</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.5112394073872319</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0.9844379271460191</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.4624926166568222</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0.9373892498523332</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.614151389944671</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.72680228159581</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4105343241968256</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4736009960480182</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.528241556532875</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9844029233985319</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4708818635607321</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9312257348863006</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.614151389944671</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.72680228159581</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.4105343241968256</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.4736009960480182</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.528241556532875</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.9844029233985319</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.4708818635607321</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.9312257348863006</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.614151389944671</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.72680228159581</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.4105343241968256</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.4736009960480182</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.528241556532875</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.9844029233985319</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.4708818635607321</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.9312257348863006</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.614151389944671</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.72680228159581</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.4105343241968256</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.4736009960480182</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.528241556532875</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.9844029233985319</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.4708818635607321</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.9312257348863006</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.614151389944671</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.72680228159581</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.4105343241968256</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.4736009960480182</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.528241556532875</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.9844029233985319</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.4708818635607321</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.9312257348863006</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.614151389944671</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.72680228159581</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.4105343241968256</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.4736009960480182</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.528241556532875</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.9844029233985319</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.4708818635607321</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.9312257348863006</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.614151389944671</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.72680228159581</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.4105343241968256</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.4736009960480182</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.528241556532875</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.9844029233985319</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0.4708818635607321</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.9312257348863006</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.614151389944671</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0.72680228159581</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0.4105343241968256</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0.4736009960480182</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0.528241556532875</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0.9844029233985319</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0.4708818635607321</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0.9312257348863006</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6110592824132012</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.721008390898885</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4080831454240042</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4683409575400124</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5198530997465994</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9847303376951143</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.4708333333333333</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9307291666666667</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.6110592824132012</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.721008390898885</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.4080831454240042</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.4683409575400124</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.5198530997465994</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.9847303376951143</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.4708333333333333</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.9307291666666667</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.6110592824132012</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.721008390898885</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.4080831454240042</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.4683409575400124</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.5198530997465994</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.9847303376951143</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.4708333333333333</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.9307291666666667</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.6110592824132012</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.721008390898885</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.4080831454240042</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.4683409575400124</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.5198530997465994</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.9847303376951143</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.4708333333333333</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.9307291666666667</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.6110592824132012</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.721008390898885</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.4080831454240042</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.4683409575400124</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.5198530997465994</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.9847303376951143</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.4708333333333333</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.9307291666666667</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.6110592824132012</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.721008390898885</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.4080831454240042</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.4683409575400124</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.5198530997465994</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.9847303376951143</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.4708333333333333</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.9307291666666667</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.6110592824132012</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.721008390898885</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.4080831454240042</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.4683409575400124</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.5198530997465994</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.9847303376951143</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.4708333333333333</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0.9307291666666667</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.6110592824132012</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0.721008390898885</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.4080831454240042</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.4683409575400124</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0.5198530997465994</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0.9847303376951143</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0.4708333333333333</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0.9307291666666667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6103534178574447</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7153588670214747</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4128992595584385</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4704745028551148</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5117383086262478</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9842924026677152</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.4633093525179856</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.924220623501199</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.6103534178574447</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.7153588670214747</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.4128992595584385</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.4704745028551148</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.5117383086262478</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.9842924026677152</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.4633093525179856</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.924220623501199</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.6103534178574447</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.7153588670214747</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.4128992595584385</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.4704745028551148</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.5117383086262478</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.9842924026677152</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.4633093525179856</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.924220623501199</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.6103534178574447</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.7153588670214747</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.4128992595584385</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.4704745028551148</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.5117383086262478</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.9842924026677152</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.4633093525179856</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.924220623501199</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.6103534178574447</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.7153588670214747</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.4128992595584385</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.4704745028551148</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.5117383086262478</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.9842924026677152</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.4633093525179856</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.924220623501199</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.6103534178574447</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.7153588670214747</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.4128992595584385</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.4704745028551148</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.5117383086262478</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.9842924026677152</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.4633093525179856</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0.924220623501199</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0.6103534178574447</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.7153588670214747</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.4128992595584385</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.4704745028551148</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.5117383086262478</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.9842924026677152</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.4633093525179856</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0.924220623501199</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0.6103534178574447</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0.7153588670214747</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0.4128992595584385</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0.4704745028551148</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0.5117383086262478</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0.9842924026677152</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0.4633093525179856</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0.924220623501199</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6090027471457957</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7176322324413453</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4107213142158025</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.4696475836341939</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5149960210387491</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9842061545711717</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4687357371063441</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9269739844819717</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6090027471457957</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.7176322324413453</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.4107213142158025</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.4696475836341939</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.5149960210387491</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.9842061545711717</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.4687357371063441</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.9269739844819717</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.6090027471457957</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.7176322324413453</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.4107213142158025</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.4696475836341939</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.5149960210387491</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.9842061545711717</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.4687357371063441</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.9269739844819717</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.6090027471457957</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.7176322324413453</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.4107213142158025</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.4696475836341939</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.5149960210387491</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.9842061545711717</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.4687357371063441</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.9269739844819717</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.6090027471457957</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.7176322324413453</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.4107213142158025</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.4696475836341939</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.5149960210387491</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.9842061545711717</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.4687357371063441</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.9269739844819717</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.6090027471457957</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.7176322324413453</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.4107213142158025</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.4696475836341939</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.5149960210387491</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.9842061545711717</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.4687357371063441</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.9269739844819717</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.6090027471457957</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.7176322324413453</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.4107213142158025</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.4696475836341939</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.5149960210387491</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.9842061545711717</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.4687357371063441</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0.9269739844819717</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0.6090027471457957</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0.7176322324413453</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.4107213142158025</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0.4696475836341939</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0.5149960210387491</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0.9842061545711717</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0.4687357371063441</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0.9269739844819717</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6268635415949324</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7303940161891666</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4187898983453642</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4781385978828728</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5334754188849405</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9831946210167265</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4750309533635989</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9248865043334709</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.6268635415949324</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.7303940161891666</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.4187898983453642</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.4781385978828728</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5334754188849405</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.9831946210167265</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.4750309533635989</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.9248865043334709</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.6268635415949324</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.7303940161891666</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.4187898983453642</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.4781385978828728</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.5334754188849405</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.9831946210167265</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.4750309533635989</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.9248865043334709</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.6268635415949324</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.7303940161891666</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.4187898983453642</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.4781385978828728</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.5334754188849405</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.9831946210167265</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.4750309533635989</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.9248865043334709</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.6268635415949324</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.7303940161891666</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.4187898983453642</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.4781385978828728</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.5334754188849405</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.9831946210167265</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.4750309533635989</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.9248865043334709</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.6268635415949324</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.7303940161891666</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.4187898983453642</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.4781385978828728</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.5334754188849405</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.9831946210167265</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.4750309533635989</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.9248865043334709</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0.6268635415949324</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.7303940161891666</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.4187898983453642</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.4781385978828728</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.5334754188849405</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.9831946210167265</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0.4750309533635989</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0.9248865043334709</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0.6268635415949324</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0.7303940161891666</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0.4187898983453642</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0.4781385978828728</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0.5334754188849405</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0.9831946210167265</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0.4750309533635989</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0.9248865043334709</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="AP1:AW1"/>
     <mergeCell ref="R1:Y1"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="AX1:BE1"/>
     <mergeCell ref="AH1:AO1"/>
     <mergeCell ref="B1:I1"/>
+    <mergeCell ref="BF1:BM1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
